--- a/plan_files/87-763-RePlan-2022-06-07.xlsx
+++ b/plan_files/87-763-RePlan-2022-06-07.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="277">
   <si>
     <t/>
   </si>
@@ -36,6 +36,12 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Unique Sticky ID</t>
+  </si>
+  <si>
+    <t>Level #</t>
+  </si>
+  <si>
     <t>Visual Flag</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>115d</t>
   </si>
   <si>
+    <t>ID-2</t>
+  </si>
+  <si>
     <t>Activity Green</t>
   </si>
   <si>
@@ -102,18 +111,27 @@
     <t>18d</t>
   </si>
   <si>
+    <t>ID-3</t>
+  </si>
+  <si>
     <t>MGMT</t>
   </si>
   <si>
     <t>15d</t>
   </si>
   <si>
+    <t>ID-4</t>
+  </si>
+  <si>
     <t>Environments</t>
   </si>
   <si>
     <t>Complete RDS Configuration</t>
   </si>
   <si>
+    <t>ID-5</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -123,6 +141,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>ID-6</t>
+  </si>
+  <si>
     <t>Milestone Blue</t>
   </si>
   <si>
@@ -135,6 +156,9 @@
     <t>5FF</t>
   </si>
   <si>
+    <t>ID-7</t>
+  </si>
+  <si>
     <t>Complete RDS configuration</t>
   </si>
   <si>
@@ -144,39 +168,60 @@
     <t>6</t>
   </si>
   <si>
+    <t>ID-8</t>
+  </si>
+  <si>
     <t>MGMT Environment Available for Testing</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>ID-9</t>
+  </si>
+  <si>
     <t>ACPT</t>
   </si>
   <si>
     <t>10d</t>
   </si>
   <si>
+    <t>ID-10</t>
+  </si>
+  <si>
     <t>Complete tasks to switch from 9.0 to 9.8</t>
   </si>
   <si>
     <t>11FF</t>
   </si>
   <si>
+    <t>ID-11</t>
+  </si>
+  <si>
     <t>Activity Red</t>
   </si>
   <si>
     <t>ACPT environment available</t>
   </si>
   <si>
+    <t>ID-12</t>
+  </si>
+  <si>
     <t>PERF/PROD</t>
   </si>
   <si>
     <t>6d</t>
   </si>
   <si>
+    <t>ID-13</t>
+  </si>
+  <si>
     <t>Sign off of PERF/PROD Visio / Spec</t>
   </si>
   <si>
+    <t>ID-14</t>
+  </si>
+  <si>
     <t>Complete build of PERF/PROD (to WD deployment)</t>
   </si>
   <si>
@@ -186,84 +231,129 @@
     <t>13FS +1d</t>
   </si>
   <si>
+    <t>ID-15</t>
+  </si>
+  <si>
     <t>PERF/PROD Environment Available for Testing</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>ID-16</t>
+  </si>
+  <si>
     <t>All environments build complete</t>
   </si>
   <si>
     <t>8, 11, 15</t>
   </si>
   <si>
+    <t>ID-17</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>65d</t>
   </si>
   <si>
+    <t>ID-18</t>
+  </si>
+  <si>
     <t>Testing / Implementation</t>
   </si>
   <si>
     <t>35d</t>
   </si>
   <si>
+    <t>ID-19</t>
+  </si>
+  <si>
     <t>Carry out UAT (MGMT)</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>ID-20</t>
+  </si>
+  <si>
     <t>Testing (MGMT) Complete</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>ID-21</t>
+  </si>
+  <si>
     <t>40d</t>
   </si>
   <si>
+    <t>ID-22</t>
+  </si>
+  <si>
     <t>Carry out UAT (ACPT)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>ID-23</t>
+  </si>
+  <si>
     <t>Testing (ACPT) Complete</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>ID-24</t>
+  </si>
+  <si>
     <t>62d</t>
   </si>
   <si>
+    <t>ID-25</t>
+  </si>
+  <si>
     <t>Smoke/System Test (PERF/PROD)</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>ID-26</t>
+  </si>
+  <si>
     <t>Carry out UAT (PERF/PROD)</t>
   </si>
   <si>
     <t>52d</t>
   </si>
   <si>
+    <t>ID-27</t>
+  </si>
+  <si>
     <t>UAT (PERF/PROD Part 1)</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
+    <t>ID-28</t>
+  </si>
+  <si>
     <t>Non-Function Test (Early)</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>ID-29</t>
+  </si>
+  <si>
     <t>UAT (PERF/PROD Part 2)</t>
   </si>
   <si>
@@ -273,48 +363,72 @@
     <t>28</t>
   </si>
   <si>
+    <t>ID-30</t>
+  </si>
+  <si>
     <t>Non-Function (Late)</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>ID-31</t>
+  </si>
+  <si>
     <t>UAT (PERF/PROD Part 3)</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
+    <t>ID-32</t>
+  </si>
+  <si>
     <t>Testing (PERF/PROD) Complete</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>ID-33</t>
+  </si>
+  <si>
     <t>All (non-prod) Testing Complete</t>
   </si>
   <si>
     <t>20, 23, 32</t>
   </si>
   <si>
+    <t>ID-34</t>
+  </si>
+  <si>
     <t>Go Live Readiness</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>ID-35</t>
+  </si>
+  <si>
     <t>Go Live (without Genesis Impact)</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>ID-36</t>
+  </si>
+  <si>
     <t>Estimated Genesis Impact</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
+    <t>ID-37</t>
+  </si>
+  <si>
     <t>Genesis Impact</t>
   </si>
   <si>
@@ -324,6 +438,9 @@
     <t>36</t>
   </si>
   <si>
+    <t>ID-38</t>
+  </si>
+  <si>
     <t>Milestone Red</t>
   </si>
   <si>
@@ -333,15 +450,24 @@
     <t>200d</t>
   </si>
   <si>
+    <t>ID-39</t>
+  </si>
+  <si>
     <t>Plan Start</t>
   </si>
   <si>
+    <t>ID-40</t>
+  </si>
+  <si>
     <t>IOOP Business Design</t>
   </si>
   <si>
     <t>95d</t>
   </si>
   <si>
+    <t>ID-41</t>
+  </si>
+  <si>
     <t>IOOP Business</t>
   </si>
   <si>
@@ -351,153 +477,243 @@
     <t>39</t>
   </si>
   <si>
+    <t>ID-42</t>
+  </si>
+  <si>
     <t>Carry out other design acitivities</t>
   </si>
   <si>
     <t>60d</t>
   </si>
   <si>
+    <t>ID-43</t>
+  </si>
+  <si>
     <t>Review / sign off other design activities</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
+    <t>ID-44</t>
+  </si>
+  <si>
     <t>Research (Chetwood, Market and Behavioural)</t>
   </si>
   <si>
+    <t>ID-45</t>
+  </si>
+  <si>
     <t>Conduct Chetwoork research)</t>
   </si>
   <si>
+    <t>ID-46</t>
+  </si>
+  <si>
     <t>Review / sign off requirements from Chetwood research</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>ID-47</t>
+  </si>
+  <si>
     <t>High level business requirements baselined</t>
   </si>
   <si>
+    <t>ID-48</t>
+  </si>
+  <si>
     <t>v1 Detailed business requirements baselined</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>ID-49</t>
+  </si>
+  <si>
     <t>v2 Detailed business requirements baselined</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
+    <t>ID-50</t>
+  </si>
+  <si>
     <t>Business Implementation (training/comms etc)</t>
   </si>
   <si>
     <t>84FF</t>
   </si>
   <si>
+    <t>ID-51</t>
+  </si>
+  <si>
     <t>IOOP Technology</t>
   </si>
   <si>
     <t>120d</t>
   </si>
   <si>
+    <t>ID-52</t>
+  </si>
+  <si>
     <t>IT Core System Changes</t>
   </si>
   <si>
     <t>81d</t>
   </si>
   <si>
+    <t>ID-53</t>
+  </si>
+  <si>
     <t>Define requirements for new set of terms</t>
   </si>
   <si>
+    <t>ID-54</t>
+  </si>
+  <si>
     <t>Get definition of changes to Charge File from Welcom</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
+    <t>ID-55</t>
+  </si>
+  <si>
     <t>Define other requirements (RTI, charge file, statements/credit, other)</t>
   </si>
   <si>
     <t>30d</t>
   </si>
   <si>
+    <t>ID-56</t>
+  </si>
+  <si>
     <t>Define requirements to drive changes to charge file</t>
   </si>
   <si>
     <t>44FF +5d</t>
   </si>
   <si>
+    <t>ID-57</t>
+  </si>
+  <si>
     <t>Define requirements to drive RTI changes</t>
   </si>
   <si>
+    <t>ID-58</t>
+  </si>
+  <si>
     <t>Define requirements to drive statements and credit agreement changes</t>
   </si>
   <si>
+    <t>ID-59</t>
+  </si>
+  <si>
     <t>Define other requirements</t>
   </si>
   <si>
+    <t>ID-60</t>
+  </si>
+  <si>
     <t>IT Core system changes (new set of terms)</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
+    <t>ID-61</t>
+  </si>
+  <si>
     <t>IT Core system changes (other)</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>ID-62</t>
+  </si>
+  <si>
     <t>Digital Changes</t>
   </si>
   <si>
     <t>45d</t>
   </si>
   <si>
+    <t>ID-63</t>
+  </si>
+  <si>
     <t>Carry out digital changes</t>
   </si>
   <si>
     <t>52FF</t>
   </si>
   <si>
+    <t>ID-64</t>
+  </si>
+  <si>
     <t>Welcom</t>
   </si>
   <si>
+    <t>ID-65</t>
+  </si>
+  <si>
     <t>Receive scoping document (high level requirements + ownership)</t>
   </si>
   <si>
     <t>47FS +5d</t>
   </si>
   <si>
+    <t>ID-66</t>
+  </si>
+  <si>
     <t>Issue draft RFC</t>
   </si>
   <si>
     <t>65FS +5d</t>
   </si>
   <si>
+    <t>ID-67</t>
+  </si>
+  <si>
     <t>Sign off RFC</t>
   </si>
   <si>
     <t>66FS +5d</t>
   </si>
   <si>
+    <t>ID-68</t>
+  </si>
+  <si>
     <t>Provide spec for changes to Charge File (TBD)</t>
   </si>
   <si>
     <t>67FS +5d</t>
   </si>
   <si>
+    <t>ID-69</t>
+  </si>
+  <si>
     <t>Carry out changes to Management Centre</t>
   </si>
   <si>
+    <t>ID-70</t>
+  </si>
+  <si>
     <t>Consultancy Support</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
+    <t>ID-71</t>
+  </si>
+  <si>
     <t>Environment and testing support</t>
   </si>
   <si>
@@ -507,7 +723,10 @@
     <t>70</t>
   </si>
   <si>
-    <t>110d</t>
+    <t>ID-72</t>
+  </si>
+  <si>
+    <t>ID-73</t>
   </si>
   <si>
     <t>IOOP Environments</t>
@@ -522,30 +741,51 @@
     <t>PERF</t>
   </si>
   <si>
+    <t>ID-74</t>
+  </si>
+  <si>
     <t>Prep PERF for IOOP testing</t>
   </si>
   <si>
     <t>79SF</t>
   </si>
   <si>
+    <t>ID-75</t>
+  </si>
+  <si>
     <t>Prep MGMT environment</t>
   </si>
   <si>
     <t>81SF</t>
   </si>
   <si>
+    <t>ID-76</t>
+  </si>
+  <si>
     <t>Prep ACPT environment</t>
   </si>
   <si>
     <t>80SF</t>
   </si>
   <si>
+    <t>ID-77</t>
+  </si>
+  <si>
     <t>Build TRNG environment</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>ID-78</t>
+  </si>
+  <si>
     <t>50d</t>
   </si>
   <si>
+    <t>ID-79</t>
+  </si>
+  <si>
     <t>IOOP Testing / Implementation</t>
   </si>
   <si>
@@ -555,31 +795,55 @@
     <t>60, 61, 63</t>
   </si>
   <si>
+    <t>ID-80</t>
+  </si>
+  <si>
     <t>ACPT Acquisition and Order Auth UAT</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
+    <t>ID-81</t>
+  </si>
+  <si>
     <t>Business UAT (MGMT)</t>
   </si>
   <si>
+    <t>ID-82</t>
+  </si>
+  <si>
     <t>Implementation</t>
   </si>
   <si>
+    <t>ID-83</t>
+  </si>
+  <si>
     <t>81</t>
   </si>
   <si>
+    <t>ID-84</t>
+  </si>
+  <si>
     <t>Go Live (without Genesis impact)</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
+    <t>ID-85</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
+    <t>ID-86</t>
+  </si>
+  <si>
     <t>85</t>
+  </si>
+  <si>
+    <t>ID-87</t>
   </si>
 </sst>
 </file>
@@ -589,7 +853,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -602,12 +866,6 @@
       <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -684,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -723,10 +981,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="top" wrapText="false" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -736,7 +990,7 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -750,20 +1004,22 @@
     <col min="6" max="6" width="23.4375" customWidth="true"/>
     <col min="7" max="7" width="23.4375" customWidth="true"/>
     <col min="8" max="8" width="23.4375" customWidth="true"/>
-    <col min="9" max="9" width="18.59375" customWidth="true"/>
+    <col min="9" max="9" width="23.4375" customWidth="true"/>
     <col min="10" max="10" width="23.4375" customWidth="true"/>
-    <col min="11" max="11" width="23.4375" customWidth="true"/>
-    <col min="12" max="12" width="67.96875" customWidth="true"/>
-    <col min="13" max="13" width="30.625" customWidth="true"/>
-    <col min="14" max="14" width="23.4375" customWidth="true"/>
-    <col min="15" max="15" width="23.4375" customWidth="true"/>
+    <col min="11" max="11" width="18.59375" customWidth="true"/>
+    <col min="12" max="12" width="23.4375" customWidth="true"/>
+    <col min="13" max="13" width="23.4375" customWidth="true"/>
+    <col min="14" max="14" width="67.96875" customWidth="true"/>
+    <col min="15" max="15" width="30.625" customWidth="true"/>
     <col min="16" max="16" width="23.4375" customWidth="true"/>
     <col min="17" max="17" width="23.4375" customWidth="true"/>
     <col min="18" max="18" width="23.4375" customWidth="true"/>
-    <col min="19" max="19" hidden="true" width="8.0" customWidth="false"/>
-    <col min="20" max="20" hidden="true" width="8.0" customWidth="false"/>
+    <col min="19" max="19" width="23.4375" customWidth="true"/>
+    <col min="20" max="20" width="23.4375" customWidth="true"/>
     <col min="21" max="21" hidden="true" width="8.0" customWidth="false"/>
     <col min="22" max="22" hidden="true" width="8.0" customWidth="false"/>
+    <col min="23" max="23" hidden="true" width="8.0" customWidth="false"/>
+    <col min="24" max="24" hidden="true" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -833,13 +1089,19 @@
       <c r="V1" t="s" s="1">
         <v>22</v>
       </c>
+      <c r="W1" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" hidden="false">
       <c r="A2" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n" s="7">
         <v>44713.0</v>
@@ -849,35 +1111,41 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="H2" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" t="s" s="5">
-        <v>23</v>
-      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="N2" t="s" s="5">
+        <v>25</v>
+      </c>
       <c r="O2" s="5"/>
-      <c r="P2" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S2" s="5"/>
-      <c r="T2" s="9"/>
+      <c r="T2" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" hidden="false" outlineLevel="1">
       <c r="A3" t="s" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n" s="7">
         <v>44713.0</v>
@@ -887,35 +1155,41 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" t="s" s="5">
-        <v>27</v>
-      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="N3" t="s" s="5">
+        <v>30</v>
+      </c>
       <c r="O3" s="5"/>
-      <c r="P3" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="9"/>
+      <c r="T3" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U3" s="5"/>
-      <c r="V3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" hidden="false" outlineLevel="2">
       <c r="A4" t="s" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n" s="7">
         <v>44718.0</v>
@@ -925,41 +1199,47 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N4" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" t="s" s="5">
-        <v>25</v>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P4" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="9"/>
+      <c r="T4" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" hidden="false" outlineLevel="3">
       <c r="A5" t="s" s="17">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n" s="7">
         <v>44718.0</v>
@@ -969,43 +1249,49 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G5" t="b" s="5">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="H5" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" t="s" s="5">
-        <v>25</v>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P5" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" t="s" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S5" s="5"/>
-      <c r="T5" s="9"/>
+      <c r="T5" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U5" s="5"/>
-      <c r="V5" s="11"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" hidden="false" outlineLevel="4">
       <c r="A6" t="s" s="19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n" s="7">
         <v>44736.0</v>
@@ -1015,41 +1301,47 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="H6" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N6" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" t="s" s="5">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s" s="5">
         <v>36</v>
+      </c>
+      <c r="P6" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S6" s="5"/>
-      <c r="T6" s="9"/>
+      <c r="T6" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="11"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" hidden="false" outlineLevel="4">
       <c r="A7" t="s" s="19">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n" s="7">
         <v>44718.0</v>
@@ -1058,42 +1350,48 @@
         <v>44735.0</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="H7" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P7" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="Q7" s="5"/>
-      <c r="R7" t="s" s="5">
-        <v>26</v>
-      </c>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="9"/>
+      <c r="T7" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="11"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" hidden="false" outlineLevel="4">
       <c r="A8" t="s" s="19">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n" s="7">
         <v>44736.0</v>
@@ -1102,44 +1400,50 @@
         <v>44736.0</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="H8" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N8" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" t="s" s="5">
-        <v>25</v>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P8" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" t="s" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S8" s="5"/>
-      <c r="T8" s="9"/>
+      <c r="T8" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U8" s="5"/>
-      <c r="V8" s="11"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" hidden="false" outlineLevel="3">
       <c r="A9" t="s" s="17">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n" s="7">
         <v>44736.0</v>
@@ -1148,44 +1452,50 @@
         <v>44736.0</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H9" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N9" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" t="s" s="5">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s" s="5">
         <v>36</v>
+      </c>
+      <c r="P9" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S9" s="5"/>
-      <c r="T9" s="9"/>
+      <c r="T9" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U9" s="5"/>
-      <c r="V9" s="11"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" hidden="false" outlineLevel="2">
       <c r="A10" t="s" s="15">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n" s="7">
         <v>44713.0</v>
@@ -1195,41 +1505,47 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="H10" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N10" t="n" s="5">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P10" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="9"/>
+      <c r="T10" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U10" s="5"/>
-      <c r="V10" s="11"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" hidden="false" outlineLevel="3">
       <c r="A11" t="s" s="17">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n" s="7">
         <v>44713.0</v>
@@ -1238,46 +1554,52 @@
         <v>44726.0</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G11" t="b" s="5">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="H11" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N11" t="n" s="5">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P11" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="9"/>
+      <c r="T11" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U11" s="5"/>
-      <c r="V11" s="11"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" hidden="false" outlineLevel="3">
       <c r="A12" t="s" s="17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n" s="7">
         <v>44727.0</v>
@@ -1287,41 +1609,47 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="H12" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N12" t="n" s="5">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P12" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="9"/>
+      <c r="T12" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U12" s="5"/>
-      <c r="V12" s="11"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" hidden="false" outlineLevel="2">
       <c r="A13" t="s" s="15">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n" s="7">
         <v>44722.0</v>
@@ -1331,41 +1659,47 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>66</v>
+      </c>
+      <c r="H13" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N13" t="n" s="5">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P13" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="T13" s="9"/>
+      <c r="T13" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U13" s="5"/>
-      <c r="V13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" hidden="false" outlineLevel="3">
       <c r="A14" t="s" s="17">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n" s="7">
         <v>44722.0</v>
@@ -1375,41 +1709,47 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="H14" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="M14" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N14" t="n" s="5">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P14" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="9"/>
+      <c r="T14" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U14" s="5"/>
-      <c r="V14" s="11"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" hidden="false" outlineLevel="3">
       <c r="A15" t="s" s="17">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n" s="7">
         <v>44725.0</v>
@@ -1418,46 +1758,52 @@
         <v>44729.0</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G15" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>72</v>
+      </c>
+      <c r="H15" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="M15" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N15" t="n" s="5">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="O15" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P15" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="9"/>
+      <c r="T15" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U15" s="5"/>
-      <c r="V15" s="11"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" hidden="false" outlineLevel="3">
       <c r="A16" t="s" s="17">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n" s="7">
         <v>44729.0</v>
@@ -1466,44 +1812,50 @@
         <v>44729.0</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="H16" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="M16" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N16" t="n" s="5">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" t="s" s="5">
+        <v>73</v>
+      </c>
+      <c r="O16" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="P16" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S16" s="5"/>
-      <c r="T16" s="9"/>
+      <c r="T16" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U16" s="5"/>
-      <c r="V16" s="11"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" hidden="false" outlineLevel="2">
       <c r="A17" t="s" s="15">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n" s="7">
         <v>44736.0</v>
@@ -1512,40 +1864,46 @@
         <v>44736.0</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" t="s" s="5">
+        <v>78</v>
+      </c>
+      <c r="H17" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="M17" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" t="s" s="5">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="O17" t="s" s="5">
         <v>36</v>
       </c>
+      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="T17" s="9"/>
+      <c r="T17" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U17" s="5"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" hidden="false" outlineLevel="1">
       <c r="A18" t="s" s="13">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C18" t="n" s="7">
         <v>44727.0</v>
@@ -1555,37 +1913,43 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="H18" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="M18" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="T18" s="9"/>
+      <c r="T18" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U18" s="5"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" hidden="false" outlineLevel="2">
       <c r="A19" t="s" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C19" t="n" s="7">
         <v>44739.0</v>
@@ -1595,39 +1959,45 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="H19" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S19" s="5"/>
-      <c r="T19" s="9"/>
+      <c r="T19" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U19" s="5"/>
-      <c r="V19" s="11"/>
-    </row>
-    <row r="20" hidden="true" outlineLevel="3">
+      <c r="V19" s="9"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" hidden="false" outlineLevel="3">
       <c r="A20" t="s" s="17">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n" s="7">
         <v>44739.0</v>
@@ -1636,46 +2006,52 @@
         <v>44785.0</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G20" t="b" s="5">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>87</v>
+      </c>
+      <c r="H20" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I20" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="M20" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N20" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" t="s" s="5">
-        <v>25</v>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="O20" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="T20" s="9"/>
+      <c r="T20" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U20" s="5"/>
-      <c r="V20" s="11"/>
-    </row>
-    <row r="21" hidden="true" outlineLevel="3">
+      <c r="V20" s="9"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" hidden="false" outlineLevel="3">
       <c r="A21" t="s" s="17">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n" s="7">
         <v>44785.0</v>
@@ -1684,42 +2060,48 @@
         <v>44785.0</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="H21" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" t="s" s="5">
-        <v>36</v>
-      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="T21" s="9"/>
+      <c r="T21" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U21" s="5"/>
-      <c r="V21" s="11"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" hidden="false" outlineLevel="2">
       <c r="A22" t="s" s="15">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C22" t="n" s="7">
         <v>44727.0</v>
@@ -1729,39 +2111,45 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="H22" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="M22" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S22" s="5"/>
-      <c r="T22" s="9"/>
+      <c r="T22" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U22" s="5"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" hidden="true" outlineLevel="3">
+      <c r="V22" s="9"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" hidden="false" outlineLevel="3">
       <c r="A23" t="s" s="17">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C23" t="n" s="7">
         <v>44727.0</v>
@@ -1770,46 +2158,52 @@
         <v>44782.0</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G23" t="b" s="5">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="H23" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I23" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="M23" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N23" t="n" s="5">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="O23" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="P23" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S23" s="5"/>
-      <c r="T23" s="9"/>
+      <c r="T23" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U23" s="5"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" hidden="true" outlineLevel="3">
+      <c r="V23" s="9"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" hidden="false" outlineLevel="3">
       <c r="A24" t="s" s="17">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n" s="7">
         <v>44782.0</v>
@@ -1818,42 +2212,48 @@
         <v>44782.0</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="G24" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="H24" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="M24" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" t="s" s="5">
-        <v>36</v>
-      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="O24" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S24" s="5"/>
-      <c r="T24" s="9"/>
+      <c r="T24" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U24" s="5"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" hidden="false" outlineLevel="2">
       <c r="A25" t="s" s="15">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n" s="7">
         <v>44732.0</v>
@@ -1863,39 +2263,45 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G25" t="s" s="5">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="O25" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S25" s="5"/>
-      <c r="T25" s="9"/>
+      <c r="T25" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U25" s="5"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" hidden="true" outlineLevel="3">
+      <c r="V25" s="9"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" hidden="false" outlineLevel="3">
       <c r="A26" t="s" s="17">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C26" t="n" s="7">
         <v>44732.0</v>
@@ -1904,46 +2310,52 @@
         <v>44743.0</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G26" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s" s="5">
+        <v>103</v>
+      </c>
+      <c r="H26" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I26" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="M26" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N26" t="n" s="5">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="O26" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P26" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O26" s="5"/>
-      <c r="P26" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S26" s="5"/>
-      <c r="T26" s="9"/>
+      <c r="T26" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U26" s="5"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" hidden="true" outlineLevel="3">
+      <c r="V26" s="9"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" hidden="false" outlineLevel="3">
       <c r="A27" t="s" s="17">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C27" t="n" s="7">
         <v>44746.0</v>
@@ -1953,39 +2365,45 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G27" t="s" s="5">
+        <v>106</v>
+      </c>
+      <c r="H27" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="M27" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" t="s" s="5">
-        <v>49</v>
-      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="O27" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S27" s="5"/>
-      <c r="T27" s="9"/>
+      <c r="T27" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U27" s="5"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" hidden="true" outlineLevel="4">
+      <c r="V27" s="9"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" hidden="false" outlineLevel="4">
       <c r="A28" t="s" s="19">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C28" t="n" s="7">
         <v>44746.0</v>
@@ -1994,46 +2412,52 @@
         <v>44757.0</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G28" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="H28" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I28" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="M28" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N28" t="n" s="5">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" t="s" s="5">
+        <v>107</v>
+      </c>
+      <c r="O28" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P28" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S28" s="5"/>
-      <c r="T28" s="9"/>
+      <c r="T28" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U28" s="5"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" hidden="true" outlineLevel="4">
+      <c r="V28" s="9"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" hidden="false" outlineLevel="4">
       <c r="A29" t="s" s="19">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C29" t="n" s="7">
         <v>44760.0</v>
@@ -2042,46 +2466,52 @@
         <v>44767.0</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G29" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="H29" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I29" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="M29" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N29" t="n" s="5">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="O29" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P29" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O29" s="5"/>
-      <c r="P29" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S29" s="5"/>
-      <c r="T29" s="9"/>
+      <c r="T29" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U29" s="5"/>
-      <c r="V29" s="11"/>
-    </row>
-    <row r="30" hidden="true" outlineLevel="4">
+      <c r="V29" s="9"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" hidden="false" outlineLevel="4">
       <c r="A30" t="s" s="19">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C30" t="n" s="7">
         <v>44768.0</v>
@@ -2090,46 +2520,52 @@
         <v>44795.0</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G30" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="H30" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I30" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="M30" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N30" t="n" s="5">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" t="s" s="5">
+        <v>113</v>
+      </c>
+      <c r="O30" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P30" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O30" s="5"/>
-      <c r="P30" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S30" s="5"/>
-      <c r="T30" s="9"/>
+      <c r="T30" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U30" s="5"/>
-      <c r="V30" s="11"/>
-    </row>
-    <row r="31" hidden="true" outlineLevel="4">
+      <c r="V30" s="9"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="11"/>
+    </row>
+    <row r="31" hidden="false" outlineLevel="4">
       <c r="A31" t="s" s="19">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n" s="7">
         <v>44796.0</v>
@@ -2138,46 +2574,52 @@
         <v>44803.0</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G31" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="H31" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I31" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="M31" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N31" t="n" s="5">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="O31" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P31" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="P31" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S31" s="5"/>
-      <c r="T31" s="9"/>
+      <c r="T31" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U31" s="5"/>
-      <c r="V31" s="11"/>
-    </row>
-    <row r="32" hidden="true" outlineLevel="4">
+      <c r="V31" s="9"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="11"/>
+    </row>
+    <row r="32" hidden="false" outlineLevel="4">
       <c r="A32" t="s" s="19">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C32" t="n" s="7">
         <v>44804.0</v>
@@ -2186,46 +2628,52 @@
         <v>44817.0</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G32" t="b" s="5">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="H32" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I32" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="M32" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N32" t="n" s="5">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="O32" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P32" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S32" s="5"/>
-      <c r="T32" s="9"/>
+      <c r="T32" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U32" s="5"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="33" hidden="true" outlineLevel="3">
+      <c r="V32" s="9"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33" hidden="false" outlineLevel="3">
       <c r="A33" t="s" s="17">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n" s="7">
         <v>44817.0</v>
@@ -2234,44 +2682,50 @@
         <v>44817.0</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G33" t="s" s="5">
+        <v>125</v>
+      </c>
+      <c r="H33" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="M33" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N33" t="n" s="5">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" t="s" s="5">
+        <v>123</v>
+      </c>
+      <c r="O33" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n" s="5">
         <v>5.0</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S33" s="5"/>
-      <c r="T33" s="9"/>
+      <c r="T33" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U33" s="5"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="11"/>
     </row>
     <row r="34" hidden="false" outlineLevel="1">
       <c r="A34" t="s" s="13">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C34" t="n" s="7">
         <v>44817.0</v>
@@ -2280,40 +2734,46 @@
         <v>44817.0</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="G34" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="H34" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="M34" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" t="s" s="5">
-        <v>36</v>
-      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="O34" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S34" s="5"/>
-      <c r="T34" s="9"/>
+      <c r="T34" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U34" s="5"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="11"/>
     </row>
     <row r="35" hidden="false" outlineLevel="1">
       <c r="A35" t="s" s="13">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C35" t="n" s="7">
         <v>44818.0</v>
@@ -2322,44 +2782,50 @@
         <v>44845.0</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" t="b" s="5">
+      <c r="G35" t="s" s="5">
+        <v>131</v>
+      </c>
+      <c r="H35" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I35" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="M35" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N35" t="n" s="5">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="O35" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n" s="5">
         <v>5.0</v>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S35" s="5"/>
-      <c r="T35" s="9"/>
+      <c r="T35" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U35" s="5"/>
-      <c r="V35" s="11"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="11"/>
     </row>
     <row r="36" hidden="false" outlineLevel="1">
       <c r="A36" t="s" s="13">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n" s="7">
         <v>44845.0</v>
@@ -2368,44 +2834,50 @@
         <v>44845.0</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" t="b" s="5">
+      <c r="G36" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="H36" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I36" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="M36" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N36" t="n" s="5">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="O36" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P36" t="n" s="5">
         <v>6.0</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S36" s="5"/>
-      <c r="T36" s="9"/>
+      <c r="T36" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U36" s="5"/>
-      <c r="V36" s="11"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="11"/>
     </row>
     <row r="37" hidden="false" outlineLevel="1">
       <c r="A37" t="s" s="13">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C37" t="n" s="7">
         <v>44846.0</v>
@@ -2414,44 +2886,50 @@
         <v>44873.0</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" t="b" s="5">
+      <c r="G37" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="H37" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I37" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="M37" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N37" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O37" t="n" s="5">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="O37" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P37" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q37" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="P37" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="R37" t="s" s="5">
+        <v>138</v>
+      </c>
       <c r="S37" s="5"/>
-      <c r="T37" s="9"/>
+      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="11"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="11"/>
     </row>
     <row r="38" hidden="false" outlineLevel="1">
       <c r="A38" t="s" s="13">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n" s="7">
         <v>44873.0</v>
@@ -2460,44 +2938,50 @@
         <v>44873.0</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" t="b" s="5">
+      <c r="G38" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="H38" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I38" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="M38" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="N38" t="n" s="5">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="O38" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n" s="5">
         <v>6.0</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" t="s" s="5">
-        <v>103</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" t="s" s="5">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="S38" s="5"/>
-      <c r="T38" s="9"/>
+      <c r="T38" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U38" s="5"/>
-      <c r="V38" s="11"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" hidden="false">
       <c r="A39" t="s" s="3">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C39" t="n" s="7">
         <v>44683.0</v>
@@ -2507,35 +2991,41 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="G39" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="H39" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" t="s" s="5">
-        <v>104</v>
-      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="N39" t="s" s="5">
+        <v>143</v>
+      </c>
       <c r="O39" s="5"/>
-      <c r="P39" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S39" s="5"/>
-      <c r="T39" s="9"/>
+      <c r="T39" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U39" s="5"/>
-      <c r="V39" s="11"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="11"/>
     </row>
     <row r="40" hidden="false" outlineLevel="1">
       <c r="A40" t="s" s="13">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n" s="7">
         <v>44683.0</v>
@@ -2545,35 +3035,41 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="G40" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H40" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" t="s" s="5">
-        <v>106</v>
-      </c>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" t="s" s="5">
+        <v>146</v>
+      </c>
       <c r="O40" s="5"/>
-      <c r="P40" t="s" s="5">
-        <v>36</v>
-      </c>
+      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S40" s="5"/>
-      <c r="T40" s="9"/>
+      <c r="T40" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U40" s="5"/>
-      <c r="V40" s="11"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="11"/>
     </row>
     <row r="41" hidden="false" outlineLevel="1">
       <c r="A41" t="s" s="13">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C41" t="n" s="7">
         <v>44683.0</v>
@@ -2583,37 +3079,43 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="G41" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="H41" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="M41" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="O41" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S41" s="5"/>
-      <c r="T41" s="9"/>
+      <c r="T41" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U41" s="5"/>
-      <c r="V41" s="11"/>
-    </row>
-    <row r="42" hidden="true" outlineLevel="2">
+      <c r="V41" s="9"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" hidden="false" outlineLevel="2">
       <c r="A42" t="s" s="15">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C42" t="n" s="7">
         <v>44683.0</v>
@@ -2622,44 +3124,50 @@
         <v>44771.0</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" t="b" s="5">
+      <c r="G42" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="H42" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I42" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="M42" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N42" t="n" s="5">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="O42" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P42" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O42" s="5"/>
-      <c r="P42" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S42" s="5"/>
-      <c r="T42" s="9"/>
+      <c r="T42" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U42" s="5"/>
-      <c r="V42" s="11"/>
-    </row>
-    <row r="43" hidden="true" outlineLevel="3">
+      <c r="V42" s="9"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" hidden="false" outlineLevel="3">
       <c r="A43" t="s" s="17">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C43" t="n" s="7">
         <v>44683.0</v>
@@ -2669,31 +3177,37 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="H43" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" t="s" s="5">
-        <v>112</v>
-      </c>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="N43" t="s" s="5">
+        <v>155</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="9"/>
+      <c r="T43" s="5"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="11"/>
-    </row>
-    <row r="44" hidden="true" outlineLevel="3">
+      <c r="V43" s="9"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" hidden="false" outlineLevel="3">
       <c r="A44" t="s" s="17">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C44" t="n" s="7">
         <v>44767.0</v>
@@ -2702,34 +3216,40 @@
         <v>44771.0</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="H44" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" t="s" s="5">
-        <v>114</v>
-      </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="N44" t="s" s="5">
+        <v>158</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="9"/>
+      <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="11"/>
-    </row>
-    <row r="45" hidden="true" outlineLevel="2">
+      <c r="V44" s="9"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" hidden="false" outlineLevel="2">
       <c r="A45" t="s" s="15">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C45" t="n" s="7">
         <v>44725.0</v>
@@ -2739,41 +3259,47 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" t="b" s="5">
+      <c r="G45" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="H45" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I45" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="M45" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N45" t="n" s="5">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="O45" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P45" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S45" s="5"/>
-      <c r="T45" s="9"/>
+      <c r="T45" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U45" s="5"/>
-      <c r="V45" s="11"/>
-    </row>
-    <row r="46" hidden="true" outlineLevel="3">
+      <c r="V45" s="9"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" hidden="false" outlineLevel="3">
       <c r="A46" t="s" s="17">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C46" t="n" s="7">
         <v>44725.0</v>
@@ -2783,31 +3309,37 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="H46" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" t="s" s="5">
-        <v>117</v>
-      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="N46" t="s" s="5">
+        <v>163</v>
+      </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="9"/>
+      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="11"/>
-    </row>
-    <row r="47" hidden="true" outlineLevel="3">
+      <c r="V46" s="9"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" hidden="false" outlineLevel="3">
       <c r="A47" t="s" s="17">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C47" t="n" s="7">
         <v>44809.0</v>
@@ -2816,34 +3348,40 @@
         <v>44813.0</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="H47" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" t="s" s="5">
-        <v>118</v>
-      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="N47" t="s" s="5">
+        <v>165</v>
+      </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="9"/>
+      <c r="T47" s="5"/>
       <c r="U47" s="5"/>
-      <c r="V47" s="11"/>
-    </row>
-    <row r="48" hidden="true" outlineLevel="2">
+      <c r="V47" s="9"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" hidden="false" outlineLevel="2">
       <c r="A48" t="s" s="15">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n" s="7">
         <v>44736.0</v>
@@ -2853,41 +3391,47 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" t="b" s="5">
+      <c r="G48" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="H48" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I48" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="M48" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N48" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O48" s="5"/>
-      <c r="P48" t="s" s="5">
-        <v>36</v>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="O48" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P48" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S48" s="5"/>
-      <c r="T48" s="9"/>
+      <c r="T48" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U48" s="5"/>
-      <c r="V48" s="11"/>
-    </row>
-    <row r="49" hidden="true" outlineLevel="2">
+      <c r="V48" s="9"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" hidden="false" outlineLevel="2">
       <c r="A49" t="s" s="15">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n" s="7">
         <v>44771.0</v>
@@ -2896,44 +3440,50 @@
         <v>44771.0</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" t="b" s="5">
+      <c r="G49" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="H49" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I49" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="M49" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N49" t="n" s="5">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="O49" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P49" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S49" s="5"/>
-      <c r="T49" s="9"/>
+      <c r="T49" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U49" s="5"/>
-      <c r="V49" s="11"/>
-    </row>
-    <row r="50" hidden="true" outlineLevel="2">
+      <c r="V49" s="9"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" hidden="false" outlineLevel="2">
       <c r="A50" t="s" s="15">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n" s="7">
         <v>44813.0</v>
@@ -2942,44 +3492,50 @@
         <v>44813.0</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" t="b" s="5">
+      <c r="G50" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="H50" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I50" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="M50" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N50" t="n" s="5">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="O50" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P50" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S50" s="5"/>
-      <c r="T50" s="9"/>
+      <c r="T50" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U50" s="5"/>
-      <c r="V50" s="11"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="11"/>
     </row>
     <row r="51" hidden="false" outlineLevel="1">
       <c r="A51" t="s" s="13">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C51" t="n" s="7">
         <v>44879.0</v>
@@ -2988,44 +3544,50 @@
         <v>44960.0</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" t="b" s="5">
+      <c r="G51" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="H51" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I51" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" t="s" s="5">
-        <v>125</v>
-      </c>
-      <c r="M51" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="N51" t="n" s="5">
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="O51" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="P51" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S51" s="5"/>
-      <c r="T51" s="9"/>
+      <c r="T51" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U51" s="5"/>
-      <c r="V51" s="11"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="11"/>
     </row>
     <row r="52" hidden="false" outlineLevel="1">
       <c r="A52" t="s" s="13">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C52" t="n" s="7">
         <v>44743.0</v>
@@ -3035,37 +3597,43 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="H52" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="M52" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="O52" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S52" s="5"/>
-      <c r="T52" s="9"/>
+      <c r="T52" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U52" s="5"/>
-      <c r="V52" s="11"/>
-    </row>
-    <row r="53" hidden="true" outlineLevel="2">
+      <c r="V52" s="9"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" hidden="false" outlineLevel="2">
       <c r="A53" t="s" s="15">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C53" t="n" s="7">
         <v>44764.0</v>
@@ -3075,39 +3643,45 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="G53" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="H53" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="M53" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N53" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O53" s="5"/>
-      <c r="P53" t="s" s="5">
-        <v>25</v>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="O53" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P53" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S53" s="5"/>
-      <c r="T53" s="9"/>
+      <c r="T53" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U53" s="5"/>
-      <c r="V53" s="11"/>
-    </row>
-    <row r="54" hidden="true" outlineLevel="3">
+      <c r="V53" s="9"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" hidden="false" outlineLevel="3">
       <c r="A54" t="s" s="17">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C54" t="n" s="7">
         <v>44774.0</v>
@@ -3117,41 +3691,47 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" t="b" s="5">
+      <c r="G54" t="s" s="5">
+        <v>186</v>
+      </c>
+      <c r="H54" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I54" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="M54" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N54" t="n" s="5">
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" t="s" s="5">
+        <v>185</v>
+      </c>
+      <c r="O54" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P54" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O54" s="5"/>
-      <c r="P54" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S54" s="5"/>
-      <c r="T54" s="9"/>
+      <c r="T54" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U54" s="5"/>
-      <c r="V54" s="11"/>
-    </row>
-    <row r="55" hidden="true" outlineLevel="3">
+      <c r="V54" s="9"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" hidden="false" outlineLevel="3">
       <c r="A55" t="s" s="17">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n" s="7">
         <v>44764.0</v>
@@ -3160,44 +3740,50 @@
         <v>44764.0</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" t="b" s="5">
+      <c r="G55" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H55" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I55" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" t="s" s="5">
-        <v>132</v>
-      </c>
-      <c r="M55" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N55" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" t="s" s="5">
-        <v>36</v>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="O55" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P55" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S55" s="5"/>
-      <c r="T55" s="9"/>
+      <c r="T55" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U55" s="5"/>
-      <c r="V55" s="11"/>
-    </row>
-    <row r="56" hidden="true" outlineLevel="3">
+      <c r="V55" s="9"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" hidden="false" outlineLevel="3">
       <c r="A56" t="s" s="17">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C56" t="n" s="7">
         <v>44781.0</v>
@@ -3207,41 +3793,47 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" t="b" s="5">
+      <c r="G56" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="H56" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I56" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="M56" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N56" t="n" s="5">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="O56" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P56" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S56" s="5"/>
-      <c r="T56" s="9"/>
+      <c r="T56" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U56" s="5"/>
-      <c r="V56" s="11"/>
-    </row>
-    <row r="57" hidden="true" outlineLevel="4">
+      <c r="V56" s="9"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" hidden="false" outlineLevel="4">
       <c r="A57" t="s" s="19">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C57" t="n" s="7">
         <v>44781.0</v>
@@ -3250,40 +3842,46 @@
         <v>44820.0</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="G57" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="H57" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="M57" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" t="s" s="5">
-        <v>49</v>
-      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="O57" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S57" s="5"/>
-      <c r="T57" s="9"/>
+      <c r="T57" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U57" s="5"/>
-      <c r="V57" s="11"/>
-    </row>
-    <row r="58" hidden="true" outlineLevel="4">
+      <c r="V57" s="9"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" hidden="false" outlineLevel="4">
       <c r="A58" t="s" s="19">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C58" t="n" s="7">
         <v>44781.0</v>
@@ -3292,40 +3890,46 @@
         <v>44820.0</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="G58" t="s" s="5">
+        <v>197</v>
+      </c>
+      <c r="H58" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" t="s" s="5">
-        <v>138</v>
-      </c>
-      <c r="M58" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="O58" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S58" s="5"/>
-      <c r="T58" s="9"/>
+      <c r="T58" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U58" s="5"/>
-      <c r="V58" s="11"/>
-    </row>
-    <row r="59" hidden="true" outlineLevel="4">
+      <c r="V58" s="9"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" hidden="false" outlineLevel="4">
       <c r="A59" t="s" s="19">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C59" t="n" s="7">
         <v>44781.0</v>
@@ -3334,40 +3938,46 @@
         <v>44820.0</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="G59" t="s" s="5">
+        <v>199</v>
+      </c>
+      <c r="H59" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="M59" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" t="s" s="5">
+        <v>198</v>
+      </c>
+      <c r="O59" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S59" s="5"/>
-      <c r="T59" s="9"/>
+      <c r="T59" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U59" s="5"/>
-      <c r="V59" s="11"/>
-    </row>
-    <row r="60" hidden="true" outlineLevel="4">
+      <c r="V59" s="9"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" hidden="false" outlineLevel="4">
       <c r="A60" t="s" s="19">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C60" t="n" s="7">
         <v>44781.0</v>
@@ -3376,40 +3986,46 @@
         <v>44820.0</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="G60" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="H60" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="M60" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" t="s" s="5">
+        <v>200</v>
+      </c>
+      <c r="O60" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S60" s="5"/>
-      <c r="T60" s="9"/>
+      <c r="T60" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U60" s="5"/>
-      <c r="V60" s="11"/>
-    </row>
-    <row r="61" hidden="true" outlineLevel="3">
+      <c r="V60" s="9"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" hidden="false" outlineLevel="3">
       <c r="A61" t="s" s="17">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C61" t="n" s="7">
         <v>44788.0</v>
@@ -3418,44 +4034,50 @@
         <v>44813.0</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" t="b" s="5">
+      <c r="G61" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="H61" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I61" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="M61" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N61" t="n" s="5">
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="O61" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P61" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O61" s="5"/>
-      <c r="P61" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" t="s" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S61" s="5"/>
-      <c r="T61" s="9"/>
+      <c r="T61" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U61" s="5"/>
-      <c r="V61" s="11"/>
-    </row>
-    <row r="62" hidden="true" outlineLevel="3">
+      <c r="V61" s="9"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" hidden="false" outlineLevel="3">
       <c r="A62" t="s" s="17">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C62" t="n" s="7">
         <v>44823.0</v>
@@ -3464,44 +4086,50 @@
         <v>44876.0</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" t="b" s="5">
+      <c r="G62" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="H62" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I62" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="M62" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N62" t="n" s="5">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" t="s" s="5">
+        <v>205</v>
+      </c>
+      <c r="O62" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P62" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O62" s="5"/>
-      <c r="P62" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" t="s" s="5">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S62" s="5"/>
-      <c r="T62" s="9"/>
+      <c r="T62" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U62" s="5"/>
-      <c r="V62" s="11"/>
-    </row>
-    <row r="63" hidden="true" outlineLevel="2">
+      <c r="V62" s="9"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" hidden="false" outlineLevel="2">
       <c r="A63" t="s" s="15">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C63" t="n" s="7">
         <v>44816.0</v>
@@ -3511,37 +4139,43 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="G63" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="H63" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" t="s" s="5">
-        <v>145</v>
-      </c>
-      <c r="M63" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="O63" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S63" s="5"/>
-      <c r="T63" s="9"/>
+      <c r="T63" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U63" s="5"/>
-      <c r="V63" s="11"/>
-    </row>
-    <row r="64" hidden="true" outlineLevel="3">
+      <c r="V63" s="9"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" hidden="false" outlineLevel="3">
       <c r="A64" t="s" s="17">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C64" t="n" s="7">
         <v>44816.0</v>
@@ -3550,44 +4184,50 @@
         <v>44876.0</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" t="b" s="5">
+      <c r="G64" t="s" s="5">
+        <v>213</v>
+      </c>
+      <c r="H64" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I64" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="M64" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="N64" t="n" s="5">
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" t="s" s="5">
+        <v>211</v>
+      </c>
+      <c r="O64" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="P64" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S64" s="5"/>
-      <c r="T64" s="9"/>
+      <c r="T64" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U64" s="5"/>
-      <c r="V64" s="11"/>
-    </row>
-    <row r="65" hidden="true" outlineLevel="2">
+      <c r="V64" s="9"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="11"/>
+    </row>
+    <row r="65" hidden="false" outlineLevel="2">
       <c r="A65" t="s" s="15">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C65" t="n" s="7">
         <v>44743.0</v>
@@ -3597,39 +4237,45 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="G65" t="s" s="5">
+        <v>215</v>
+      </c>
+      <c r="H65" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="M65" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N65" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O65" s="5"/>
-      <c r="P65" t="s" s="5">
-        <v>25</v>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="O65" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P65" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S65" s="5"/>
-      <c r="T65" s="9"/>
+      <c r="T65" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U65" s="5"/>
-      <c r="V65" s="11"/>
-    </row>
-    <row r="66" hidden="true" outlineLevel="3">
+      <c r="V65" s="9"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" hidden="false" outlineLevel="3">
       <c r="A66" t="s" s="17">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C66" t="n" s="7">
         <v>44743.0</v>
@@ -3638,44 +4284,50 @@
         <v>44743.0</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" t="b" s="5">
+      <c r="G66" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="H66" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I66" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" t="s" s="5">
-        <v>150</v>
-      </c>
-      <c r="M66" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N66" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O66" s="5"/>
-      <c r="P66" t="s" s="5">
-        <v>36</v>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="O66" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P66" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S66" s="5"/>
-      <c r="T66" s="9"/>
+      <c r="T66" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U66" s="5"/>
-      <c r="V66" s="11"/>
-    </row>
-    <row r="67" hidden="true" outlineLevel="3">
+      <c r="V66" s="9"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" hidden="false" outlineLevel="3">
       <c r="A67" t="s" s="17">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C67" t="n" s="7">
         <v>44750.0</v>
@@ -3684,44 +4336,50 @@
         <v>44750.0</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" t="b" s="5">
+      <c r="G67" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="H67" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I67" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="M67" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N67" t="n" s="5">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" t="s" s="5">
+        <v>219</v>
+      </c>
+      <c r="O67" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P67" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O67" s="5"/>
-      <c r="P67" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="9"/>
+      <c r="T67" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U67" s="5"/>
-      <c r="V67" s="11"/>
-    </row>
-    <row r="68" hidden="true" outlineLevel="3">
+      <c r="V67" s="9"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" hidden="false" outlineLevel="3">
       <c r="A68" t="s" s="17">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C68" t="n" s="7">
         <v>44757.0</v>
@@ -3730,44 +4388,50 @@
         <v>44757.0</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" t="b" s="5">
+      <c r="G68" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="H68" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I68" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" t="s" s="5">
-        <v>154</v>
-      </c>
-      <c r="M68" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N68" t="n" s="5">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="O68" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P68" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O68" s="5"/>
-      <c r="P68" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S68" s="5"/>
-      <c r="T68" s="9"/>
+      <c r="T68" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U68" s="5"/>
-      <c r="V68" s="11"/>
-    </row>
-    <row r="69" hidden="true" outlineLevel="3">
+      <c r="V68" s="9"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="11"/>
+    </row>
+    <row r="69" hidden="false" outlineLevel="3">
       <c r="A69" t="s" s="17">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n" s="7">
         <v>44764.0</v>
@@ -3776,44 +4440,50 @@
         <v>44764.0</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" t="b" s="5">
+      <c r="G69" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="H69" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I69" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" t="s" s="5">
-        <v>156</v>
-      </c>
-      <c r="M69" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N69" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O69" s="5"/>
-      <c r="P69" t="s" s="5">
-        <v>36</v>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="O69" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P69" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" t="s" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S69" s="5"/>
-      <c r="T69" s="9"/>
+      <c r="T69" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U69" s="5"/>
-      <c r="V69" s="11"/>
-    </row>
-    <row r="70" hidden="true" outlineLevel="3">
+      <c r="V69" s="9"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="11"/>
+    </row>
+    <row r="70" hidden="false" outlineLevel="3">
       <c r="A70" t="s" s="17">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C70" t="n" s="7">
         <v>44818.0</v>
@@ -3822,44 +4492,50 @@
         <v>44845.0</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" t="b" s="5">
+      <c r="G70" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="H70" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I70" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="M70" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N70" t="n" s="5">
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" t="s" s="5">
+        <v>228</v>
+      </c>
+      <c r="O70" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P70" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O70" s="5"/>
-      <c r="P70" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S70" s="5"/>
-      <c r="T70" s="9"/>
+      <c r="T70" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U70" s="5"/>
-      <c r="V70" s="11"/>
-    </row>
-    <row r="71" hidden="true" outlineLevel="3">
+      <c r="V70" s="9"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" hidden="false" outlineLevel="3">
       <c r="A71" t="s" s="17">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C71" t="n" s="7">
         <v>44757.0</v>
@@ -3868,44 +4544,50 @@
         <v>44798.0</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" t="b" s="5">
+      <c r="G71" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="H71" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I71" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" t="s" s="5">
-        <v>159</v>
-      </c>
-      <c r="M71" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N71" t="n" s="5">
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="O71" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P71" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O71" s="5"/>
-      <c r="P71" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q71" s="5"/>
       <c r="R71" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S71" s="5"/>
-      <c r="T71" s="9"/>
+      <c r="T71" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U71" s="5"/>
-      <c r="V71" s="11"/>
-    </row>
-    <row r="72" hidden="true" outlineLevel="3">
+      <c r="V71" s="9"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" hidden="false" outlineLevel="3">
       <c r="A72" t="s" s="17">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="C72" t="n" s="7">
         <v>44799.0</v>
@@ -3914,84 +4596,96 @@
         <v>44910.0</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" t="b" s="5">
+      <c r="G72" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="H72" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I72" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="M72" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="N72" t="n" s="5">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="O72" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="P72" t="n" s="5">
         <v>4.0</v>
-      </c>
-      <c r="O72" s="5"/>
-      <c r="P72" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S72" s="5"/>
-      <c r="T72" s="9"/>
+      <c r="T72" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U72" s="5"/>
-      <c r="V72" s="11"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="11"/>
     </row>
     <row r="73" hidden="false">
       <c r="A73" t="s" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C73" t="n" s="7">
         <v>44739.0</v>
       </c>
       <c r="D73" t="n" s="7">
-        <v>44890.0</v>
+        <v>44904.0</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="H73" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="M73" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="O73" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S73" s="5"/>
-      <c r="T73" s="9"/>
+      <c r="T73" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U73" s="5"/>
-      <c r="V73" s="11"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" hidden="false" outlineLevel="1">
       <c r="A74" t="s" s="13">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C74" t="n" s="7">
         <v>44739.0</v>
@@ -4000,46 +4694,52 @@
         <v>44778.0</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="F74" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="G74" t="b" s="5">
+        <v>241</v>
+      </c>
+      <c r="G74" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="H74" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I74" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" t="s" s="5">
-        <v>166</v>
-      </c>
-      <c r="M74" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="N74" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O74" s="5"/>
-      <c r="P74" t="s" s="5">
-        <v>25</v>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" t="s" s="5">
+        <v>239</v>
+      </c>
+      <c r="O74" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="P74" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S74" s="5"/>
-      <c r="T74" s="9"/>
+      <c r="T74" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U74" s="5"/>
-      <c r="V74" s="11"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="11"/>
     </row>
     <row r="75" hidden="false" outlineLevel="1">
       <c r="A75" t="s" s="13">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C75" t="n" s="7">
         <v>44872.0</v>
@@ -4048,44 +4748,50 @@
         <v>44876.0</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" t="b" s="5">
+      <c r="G75" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="H75" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I75" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" t="s" s="5">
-        <v>169</v>
-      </c>
-      <c r="M75" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="N75" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O75" s="5"/>
-      <c r="P75" t="s" s="5">
-        <v>25</v>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="O75" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="P75" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S75" s="5"/>
-      <c r="T75" s="9"/>
+      <c r="T75" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U75" s="5"/>
-      <c r="V75" s="11"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="11"/>
     </row>
     <row r="76" hidden="false" outlineLevel="1">
       <c r="A76" t="s" s="13">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C76" t="n" s="7">
         <v>44865.0</v>
@@ -4094,46 +4800,52 @@
         <v>44876.0</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="F76" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G76" t="b" s="5">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="H76" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I76" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="M76" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="N76" t="n" s="5">
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="O76" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="P76" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O76" s="5"/>
-      <c r="P76" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S76" s="5"/>
-      <c r="T76" s="9"/>
+      <c r="T76" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U76" s="5"/>
-      <c r="V76" s="11"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" hidden="false" outlineLevel="1">
       <c r="A77" t="s" s="13">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C77" t="n" s="7">
         <v>44879.0</v>
@@ -4142,74 +4854,94 @@
         <v>44890.0</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G77" t="b" s="5">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="5">
+        <v>251</v>
+      </c>
+      <c r="H77" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I77" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="M77" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="N77" t="n" s="5">
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" t="s" s="5">
+        <v>249</v>
+      </c>
+      <c r="O77" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="P77" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O77" s="5"/>
-      <c r="P77" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" t="s" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S77" s="5"/>
-      <c r="T77" s="9"/>
+      <c r="T77" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U77" s="5"/>
-      <c r="V77" s="11"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="11"/>
     </row>
     <row r="78" hidden="false" outlineLevel="1">
       <c r="A78" t="s" s="13">
-        <v>175</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="C78" t="n" s="7">
+        <v>44893.0</v>
+      </c>
+      <c r="D78" t="n" s="7">
+        <v>44904.0</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>253</v>
+      </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="G78" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="H78" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" t="s" s="5">
-        <v>175</v>
-      </c>
+      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="N78" t="s" s="5">
+        <v>252</v>
+      </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="9"/>
+      <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="11"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="11"/>
     </row>
     <row r="79" hidden="false">
       <c r="A79" t="s" s="3">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C79" t="n" s="7">
         <v>44879.0</v>
@@ -4219,37 +4951,43 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="G79" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="H79" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="M79" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="O79" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S79" s="5"/>
-      <c r="T79" s="9"/>
+      <c r="T79" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U79" s="5"/>
-      <c r="V79" s="11"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="11"/>
     </row>
     <row r="80" hidden="false" outlineLevel="1">
       <c r="A80" t="s" s="13">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C80" t="n" s="7">
         <v>44879.0</v>
@@ -4258,44 +4996,50 @@
         <v>44890.0</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="G80" t="b" s="5">
+      <c r="G80" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="H80" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I80" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="M80" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N80" t="n" s="5">
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="O80" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P80" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O80" s="5"/>
-      <c r="P80" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S80" s="5"/>
-      <c r="T80" s="9"/>
+      <c r="T80" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U80" s="5"/>
-      <c r="V80" s="11"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="11"/>
     </row>
     <row r="81" hidden="false" outlineLevel="1">
       <c r="A81" t="s" s="13">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C81" t="n" s="7">
         <v>44893.0</v>
@@ -4304,44 +5048,50 @@
         <v>44904.0</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" t="b" s="5">
+      <c r="G81" t="s" s="5">
+        <v>263</v>
+      </c>
+      <c r="H81" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I81" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="M81" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N81" t="n" s="5">
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="O81" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P81" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" t="s" s="5">
-        <v>25</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S81" s="5"/>
-      <c r="T81" s="9"/>
+      <c r="T81" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U81" s="5"/>
-      <c r="V81" s="11"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="11"/>
     </row>
     <row r="82" hidden="false" outlineLevel="1">
       <c r="A82" t="s" s="13">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C82" t="n" s="7">
         <v>44879.0</v>
@@ -4350,44 +5100,50 @@
         <v>44946.0</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" t="b" s="5">
+      <c r="G82" t="s" s="5">
+        <v>265</v>
+      </c>
+      <c r="H82" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I82" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" t="s" s="5">
-        <v>182</v>
-      </c>
-      <c r="M82" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N82" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" t="s" s="5">
-        <v>49</v>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" t="s" s="5">
+        <v>264</v>
+      </c>
+      <c r="O82" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P82" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S82" s="5"/>
-      <c r="T82" s="9"/>
+      <c r="T82" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U82" s="5"/>
-      <c r="V82" s="11"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="11"/>
     </row>
     <row r="83" hidden="false">
       <c r="A83" t="s" s="3">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C83" t="n" s="7">
         <v>44949.0</v>
@@ -4397,37 +5153,43 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="G83" t="s" s="5">
+        <v>267</v>
+      </c>
+      <c r="H83" t="n" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="M83" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" t="s" s="5">
-        <v>25</v>
-      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="O83" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S83" s="5"/>
-      <c r="T83" s="9"/>
+      <c r="T83" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U83" s="5"/>
-      <c r="V83" s="11"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="11"/>
     </row>
     <row r="84" hidden="false" outlineLevel="1">
       <c r="A84" t="s" s="13">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C84" t="n" s="7">
         <v>44949.0</v>
@@ -4436,44 +5198,50 @@
         <v>44960.0</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" t="b" s="5">
+      <c r="G84" t="s" s="5">
+        <v>269</v>
+      </c>
+      <c r="H84" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I84" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="M84" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N84" t="n" s="5">
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="O84" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P84" t="n" s="5">
         <v>2.0</v>
-      </c>
-      <c r="O84" s="5"/>
-      <c r="P84" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" t="s" s="5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S84" s="5"/>
-      <c r="T84" s="9"/>
+      <c r="T84" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U84" s="5"/>
-      <c r="V84" s="11"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="11"/>
     </row>
     <row r="85" hidden="false" outlineLevel="1">
       <c r="A85" t="s" s="13">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C85" t="n" s="7">
         <v>44960.0</v>
@@ -4482,44 +5250,50 @@
         <v>44960.0</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F85" s="5"/>
-      <c r="G85" t="b" s="5">
+      <c r="G85" t="s" s="5">
+        <v>272</v>
+      </c>
+      <c r="H85" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I85" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" t="s" s="5">
-        <v>185</v>
-      </c>
-      <c r="M85" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N85" t="n" s="5">
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="O85" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P85" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O85" s="5"/>
-      <c r="P85" t="s" s="5">
-        <v>36</v>
       </c>
       <c r="Q85" s="5"/>
       <c r="R85" t="s" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S85" s="5"/>
-      <c r="T85" s="9"/>
+      <c r="T85" t="s" s="5">
+        <v>29</v>
+      </c>
       <c r="U85" s="5"/>
-      <c r="V85" s="11"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="11"/>
     </row>
     <row r="86" hidden="false" outlineLevel="1">
       <c r="A86" t="s" s="13">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C86" t="n" s="7">
         <v>44963.0</v>
@@ -4528,44 +5302,50 @@
         <v>44988.0</v>
       </c>
       <c r="E86" t="s" s="5">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="F86" s="5"/>
-      <c r="G86" t="b" s="5">
+      <c r="G86" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="H86" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I86" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="M86" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N86" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O86" t="n" s="5">
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="O86" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P86" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q86" t="n" s="5">
         <v>3.0</v>
       </c>
-      <c r="P86" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
+      <c r="R86" t="s" s="5">
+        <v>138</v>
+      </c>
       <c r="S86" s="5"/>
-      <c r="T86" s="9"/>
+      <c r="T86" s="5"/>
       <c r="U86" s="5"/>
-      <c r="V86" s="11"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" hidden="false" outlineLevel="1">
       <c r="A87" t="s" s="13">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C87" t="n" s="7">
         <v>44988.0</v>
@@ -4574,37 +5354,43 @@
         <v>44988.0</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="G87" t="b" s="5">
+      <c r="G87" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="H87" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I87" t="b" s="5">
         <v>1</v>
       </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="M87" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="N87" t="n" s="5">
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="O87" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="P87" t="n" s="5">
         <v>3.0</v>
-      </c>
-      <c r="O87" s="5"/>
-      <c r="P87" t="s" s="5">
-        <v>103</v>
       </c>
       <c r="Q87" s="5"/>
       <c r="R87" t="s" s="5">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="S87" s="5"/>
-      <c r="T87" s="9"/>
+      <c r="T87" t="s" s="5">
+        <v>39</v>
+      </c>
       <c r="U87" s="5"/>
-      <c r="V87" s="11"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
